--- a/转台软件中英文对照表格.xlsx
+++ b/转台软件中英文对照表格.xlsx
@@ -827,10 +827,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Elevated lamp digital calibrator 2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Elevated lamp digital calibrator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1654,6 +1650,22 @@
   </si>
   <si>
     <t>正在导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>goniophotometer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（测角光度计，即我们的整个转台测光系统）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1661,7 +1673,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1750,6 +1762,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2323,7 +2342,7 @@
   <dimension ref="B1:D300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C290" sqref="C290"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2351,7 +2370,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
@@ -2360,7 +2379,7 @@
         <v>96</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
@@ -2378,7 +2397,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
@@ -2530,7 +2549,7 @@
     <row r="23" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B23" s="21"/>
       <c r="C23" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>121</v>
@@ -2665,28 +2684,28 @@
     <row r="38" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B38" s="21"/>
       <c r="C38" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B39" s="21"/>
       <c r="C39" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B40" s="21"/>
       <c r="C40" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B41" s="21"/>
       <c r="C41" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D41" s="6"/>
     </row>
@@ -2768,20 +2787,20 @@
         <v>104</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B51" s="21"/>
       <c r="C51" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D51" s="6"/>
     </row>
     <row r="52" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B52" s="21"/>
       <c r="C52" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -2791,153 +2810,153 @@
         <v>105</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B54" s="21"/>
       <c r="C54" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D54" s="6"/>
     </row>
     <row r="55" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B55" s="21"/>
       <c r="C55" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D55" s="6"/>
     </row>
     <row r="56" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B56" s="21"/>
       <c r="C56" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D56" s="6"/>
     </row>
     <row r="57" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B57" s="21"/>
       <c r="C57" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D57" s="6"/>
     </row>
     <row r="58" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B58" s="21"/>
       <c r="C58" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D58" s="6"/>
     </row>
     <row r="59" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B59" s="21"/>
       <c r="C59" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D59" s="6"/>
     </row>
     <row r="60" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B60" s="21"/>
       <c r="C60" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D60" s="6"/>
     </row>
     <row r="61" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B61" s="21"/>
       <c r="C61" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D61" s="6"/>
     </row>
     <row r="62" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B62" s="21"/>
       <c r="C62" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D62" s="6"/>
     </row>
     <row r="63" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B63" s="21"/>
       <c r="C63" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D63" s="6"/>
     </row>
     <row r="64" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B64" s="21"/>
       <c r="C64" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D64" s="6"/>
     </row>
     <row r="65" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B65" s="21"/>
       <c r="C65" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D65" s="6"/>
     </row>
     <row r="66" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B66" s="21"/>
       <c r="C66" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D66" s="6"/>
     </row>
     <row r="67" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B67" s="21"/>
       <c r="C67" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D67" s="6"/>
     </row>
     <row r="68" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B68" s="21"/>
       <c r="C68" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D68" s="6"/>
     </row>
     <row r="69" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B69" s="21"/>
       <c r="C69" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D69" s="6"/>
     </row>
     <row r="70" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B70" s="21"/>
       <c r="C70" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D70" s="6"/>
     </row>
     <row r="71" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B71" s="21"/>
       <c r="C71" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D71" s="6"/>
     </row>
     <row r="72" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B72" s="21"/>
       <c r="C72" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D72" s="6"/>
     </row>
     <row r="73" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B73" s="21"/>
       <c r="C73" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D73" s="6"/>
     </row>
     <row r="74" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B74" s="21"/>
       <c r="C74" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D74" s="6"/>
     </row>
@@ -2946,903 +2965,903 @@
         <v>17</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="6"/>
     </row>
     <row r="76" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B76" s="21"/>
       <c r="C76" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="6"/>
     </row>
     <row r="77" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B77" s="21"/>
       <c r="C77" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="6"/>
     </row>
     <row r="78" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B78" s="21"/>
       <c r="C78" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="6"/>
     </row>
     <row r="79" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B79" s="21"/>
       <c r="C79" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="6"/>
     </row>
     <row r="80" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B80" s="21"/>
       <c r="C80" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="6"/>
     </row>
     <row r="81" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B81" s="21"/>
       <c r="C81" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="6"/>
     </row>
     <row r="82" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B82" s="21"/>
       <c r="C82" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D82" s="6"/>
     </row>
     <row r="83" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B83" s="21"/>
       <c r="C83" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="6"/>
     </row>
     <row r="84" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B84" s="21"/>
       <c r="C84" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D84" s="6"/>
     </row>
     <row r="85" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B85" s="21"/>
       <c r="C85" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D85" s="6"/>
     </row>
     <row r="86" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B86" s="21"/>
       <c r="C86" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D86" s="6"/>
     </row>
     <row r="87" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B87" s="21"/>
       <c r="C87" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D87" s="6"/>
     </row>
     <row r="88" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B88" s="21"/>
       <c r="C88" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D88" s="6"/>
     </row>
     <row r="89" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B89" s="21"/>
       <c r="C89" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D89" s="6"/>
     </row>
     <row r="90" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B90" s="21"/>
       <c r="C90" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D90" s="6"/>
     </row>
     <row r="91" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B91" s="21"/>
       <c r="C91" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D91" s="6"/>
     </row>
     <row r="92" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B92" s="21"/>
       <c r="C92" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D92" s="6"/>
     </row>
     <row r="93" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B93" s="21"/>
       <c r="C93" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D93" s="6"/>
     </row>
     <row r="94" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B94" s="21"/>
       <c r="C94" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D94" s="6"/>
     </row>
     <row r="95" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B95" s="21"/>
       <c r="C95" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D95" s="6"/>
     </row>
     <row r="96" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B96" s="21"/>
       <c r="C96" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D96" s="6"/>
     </row>
     <row r="97" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B97" s="21"/>
       <c r="C97" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D97" s="6"/>
     </row>
     <row r="98" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B98" s="21"/>
       <c r="C98" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D98" s="6"/>
     </row>
     <row r="99" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B99" s="21"/>
       <c r="C99" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D99" s="6"/>
     </row>
     <row r="100" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B100" s="21"/>
       <c r="C100" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D100" s="6"/>
     </row>
     <row r="101" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B101" s="21"/>
       <c r="C101" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D101" s="6"/>
     </row>
     <row r="102" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B102" s="21"/>
       <c r="C102" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D102" s="6"/>
     </row>
     <row r="103" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B103" s="21"/>
       <c r="C103" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D103" s="6"/>
     </row>
     <row r="104" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B104" s="21"/>
       <c r="C104" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D104" s="6"/>
     </row>
     <row r="105" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B105" s="21"/>
       <c r="C105" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D105" s="6"/>
     </row>
     <row r="106" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B106" s="21"/>
       <c r="C106" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D106" s="6"/>
     </row>
     <row r="107" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B107" s="21"/>
       <c r="C107" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D107" s="6"/>
     </row>
     <row r="108" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B108" s="21"/>
       <c r="C108" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D108" s="6"/>
     </row>
     <row r="109" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B109" s="21"/>
       <c r="C109" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D109" s="6"/>
     </row>
     <row r="110" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B110" s="21"/>
       <c r="C110" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D110" s="6"/>
     </row>
     <row r="111" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B111" s="21"/>
       <c r="C111" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D111" s="6"/>
     </row>
     <row r="112" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B112" s="21"/>
       <c r="C112" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D112" s="6"/>
     </row>
     <row r="113" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B113" s="21"/>
       <c r="C113" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D113" s="6"/>
     </row>
     <row r="114" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B114" s="21"/>
       <c r="C114" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D114" s="6"/>
     </row>
     <row r="115" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B115" s="21"/>
       <c r="C115" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D115" s="6"/>
     </row>
     <row r="116" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B116" s="21"/>
       <c r="C116" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D116" s="6"/>
     </row>
     <row r="117" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B117" s="21"/>
       <c r="C117" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D117" s="6"/>
     </row>
     <row r="118" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B118" s="21"/>
       <c r="C118" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D118" s="6"/>
     </row>
     <row r="119" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B119" s="21"/>
       <c r="C119" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D119" s="6"/>
     </row>
     <row r="120" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B120" s="21"/>
       <c r="C120" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D120" s="6"/>
     </row>
     <row r="121" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B121" s="21"/>
       <c r="C121" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D121" s="6"/>
     </row>
     <row r="122" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B122" s="21"/>
       <c r="C122" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D122" s="6"/>
     </row>
     <row r="123" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B123" s="21"/>
       <c r="C123" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D123" s="6"/>
     </row>
     <row r="124" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B124" s="21"/>
       <c r="C124" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D124" s="6"/>
     </row>
     <row r="125" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B125" s="21"/>
       <c r="C125" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D125" s="6"/>
     </row>
     <row r="126" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B126" s="21"/>
       <c r="C126" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D126" s="6"/>
     </row>
     <row r="127" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B127" s="21"/>
       <c r="C127" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D127" s="6"/>
     </row>
     <row r="128" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B128" s="21"/>
       <c r="C128" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D128" s="6"/>
     </row>
     <row r="129" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B129" s="21"/>
       <c r="C129" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D129" s="6"/>
     </row>
     <row r="130" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B130" s="21"/>
       <c r="C130" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D130" s="6"/>
     </row>
     <row r="131" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B131" s="21"/>
       <c r="C131" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D131" s="6"/>
     </row>
     <row r="132" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B132" s="21"/>
       <c r="C132" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D132" s="6"/>
     </row>
     <row r="133" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B133" s="21"/>
       <c r="C133" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D133" s="6"/>
     </row>
     <row r="134" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B134" s="21"/>
       <c r="C134" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D134" s="6"/>
     </row>
     <row r="135" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B135" s="21"/>
       <c r="C135" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D135" s="6"/>
     </row>
     <row r="136" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B136" s="21"/>
       <c r="C136" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D136" s="6"/>
     </row>
     <row r="137" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B137" s="21"/>
       <c r="C137" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D137" s="6"/>
     </row>
     <row r="138" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B138" s="21"/>
       <c r="C138" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D138" s="6"/>
     </row>
     <row r="139" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B139" s="21"/>
       <c r="C139" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D139" s="6"/>
     </row>
     <row r="140" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B140" s="21"/>
       <c r="C140" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D140" s="6"/>
     </row>
     <row r="141" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B141" s="21"/>
       <c r="C141" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D141" s="6"/>
     </row>
     <row r="142" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B142" s="21"/>
       <c r="C142" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D142" s="6"/>
     </row>
     <row r="143" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B143" s="21"/>
       <c r="C143" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D143" s="6"/>
     </row>
     <row r="144" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B144" s="21"/>
       <c r="C144" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D144" s="6"/>
     </row>
     <row r="145" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B145" s="21"/>
       <c r="C145" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D145" s="6"/>
     </row>
     <row r="146" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B146" s="21"/>
       <c r="C146" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D146" s="6"/>
     </row>
     <row r="147" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B147" s="21"/>
       <c r="C147" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D147" s="6"/>
     </row>
     <row r="148" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B148" s="21"/>
       <c r="C148" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D148" s="6"/>
     </row>
     <row r="149" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B149" s="21"/>
       <c r="C149" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D149" s="6"/>
     </row>
     <row r="150" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B150" s="21"/>
       <c r="C150" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D150" s="6"/>
     </row>
     <row r="151" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B151" s="21"/>
       <c r="C151" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D151" s="6"/>
     </row>
     <row r="152" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B152" s="21"/>
       <c r="C152" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D152" s="6"/>
     </row>
     <row r="153" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B153" s="21"/>
       <c r="C153" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D153" s="6"/>
     </row>
     <row r="154" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B154" s="21"/>
       <c r="C154" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D154" s="6"/>
     </row>
     <row r="155" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B155" s="21"/>
       <c r="C155" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D155" s="6"/>
     </row>
     <row r="156" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B156" s="21"/>
       <c r="C156" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D156" s="6"/>
     </row>
     <row r="157" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B157" s="21"/>
       <c r="C157" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D157" s="6"/>
     </row>
     <row r="158" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B158" s="21"/>
       <c r="C158" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D158" s="6"/>
     </row>
     <row r="159" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B159" s="21"/>
       <c r="C159" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D159" s="6"/>
     </row>
     <row r="160" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B160" s="21"/>
       <c r="C160" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D160" s="6"/>
     </row>
     <row r="161" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B161" s="21"/>
       <c r="C161" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D161" s="6"/>
     </row>
     <row r="162" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B162" s="21"/>
       <c r="C162" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D162" s="6"/>
     </row>
     <row r="163" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B163" s="21"/>
       <c r="C163" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D163" s="6"/>
     </row>
     <row r="164" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B164" s="21"/>
       <c r="C164" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D164" s="6"/>
     </row>
     <row r="165" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B165" s="21"/>
       <c r="C165" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D165" s="6"/>
     </row>
     <row r="166" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B166" s="21"/>
       <c r="C166" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D166" s="6"/>
     </row>
     <row r="167" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B167" s="21"/>
       <c r="C167" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D167" s="6"/>
     </row>
     <row r="168" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B168" s="21"/>
       <c r="C168" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D168" s="6"/>
     </row>
     <row r="169" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B169" s="21"/>
       <c r="C169" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D169" s="6"/>
     </row>
     <row r="170" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B170" s="21"/>
       <c r="C170" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D170" s="6"/>
     </row>
     <row r="171" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B171" s="21"/>
       <c r="C171" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D171" s="6"/>
     </row>
     <row r="172" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B172" s="21"/>
       <c r="C172" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D172" s="6"/>
     </row>
     <row r="173" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B173" s="21"/>
       <c r="C173" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D173" s="6"/>
     </row>
     <row r="174" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B174" s="21"/>
       <c r="C174" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D174" s="6"/>
     </row>
     <row r="175" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B175" s="21"/>
       <c r="C175" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D175" s="6"/>
     </row>
     <row r="176" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B176" s="21"/>
       <c r="C176" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D176" s="6"/>
     </row>
     <row r="177" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B177" s="21"/>
       <c r="C177" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D177" s="6"/>
     </row>
     <row r="178" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B178" s="21"/>
       <c r="C178" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D178" s="6"/>
     </row>
     <row r="179" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B179" s="21"/>
       <c r="C179" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D179" s="6"/>
     </row>
     <row r="180" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B180" s="21"/>
       <c r="C180" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D180" s="6"/>
     </row>
     <row r="181" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B181" s="21"/>
       <c r="C181" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D181" s="6"/>
     </row>
     <row r="182" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B182" s="21"/>
       <c r="C182" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D182" s="6"/>
     </row>
     <row r="183" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B183" s="21"/>
       <c r="C183" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D183" s="6"/>
     </row>
     <row r="184" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B184" s="21"/>
       <c r="C184" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D184" s="6"/>
     </row>
     <row r="185" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B185" s="21"/>
       <c r="C185" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D185" s="6"/>
     </row>
     <row r="186" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B186" s="21"/>
       <c r="C186" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D186" s="6"/>
     </row>
     <row r="187" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B187" s="21"/>
       <c r="C187" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D187" s="6"/>
     </row>
     <row r="188" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B188" s="21"/>
       <c r="C188" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D188" s="6"/>
     </row>
     <row r="189" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B189" s="21"/>
       <c r="C189" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D189" s="6"/>
     </row>
     <row r="190" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B190" s="21"/>
       <c r="C190" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D190" s="6"/>
     </row>
     <row r="191" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B191" s="21"/>
       <c r="C191" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D191" s="6"/>
     </row>
     <row r="192" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B192" s="21"/>
       <c r="C192" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D192" s="6"/>
     </row>
     <row r="193" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B193" s="21"/>
       <c r="C193" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D193" s="6"/>
     </row>
     <row r="194" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B194" s="21"/>
       <c r="C194" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D194" s="6"/>
     </row>
     <row r="195" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B195" s="21"/>
       <c r="C195" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D195" s="6"/>
     </row>
     <row r="196" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B196" s="21"/>
       <c r="C196" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D196" s="6"/>
     </row>
     <row r="197" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B197" s="21"/>
       <c r="C197" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D197" s="6"/>
     </row>
     <row r="198" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B198" s="21"/>
       <c r="C198" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D198" s="6"/>
     </row>
     <row r="199" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B199" s="21"/>
       <c r="C199" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D199" s="6"/>
     </row>
     <row r="200" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B200" s="21"/>
       <c r="C200" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D200" s="6"/>
     </row>
     <row r="201" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B201" s="21"/>
       <c r="C201" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D201" s="6"/>
     </row>
     <row r="202" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B202" s="21"/>
       <c r="C202" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D202" s="6"/>
     </row>
     <row r="203" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B203" s="21"/>
       <c r="C203" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D203" s="6"/>
     </row>
@@ -3852,7 +3871,7 @@
         <v>18</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
@@ -4119,7 +4138,7 @@
     <row r="234" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B234" s="21"/>
       <c r="C234" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D234" s="6"/>
     </row>
@@ -4237,7 +4256,7 @@
         <v>86</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="248" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
@@ -4270,7 +4289,7 @@
     <row r="251" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B251" s="21"/>
       <c r="C251" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>190</v>
@@ -4342,42 +4361,42 @@
     <row r="259" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B259" s="21"/>
       <c r="C259" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="260" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B260" s="21"/>
       <c r="C260" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D260" s="6"/>
     </row>
     <row r="261" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B261" s="21"/>
       <c r="C261" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D261" s="6"/>
     </row>
     <row r="262" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B262" s="21"/>
       <c r="C262" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="263" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B263" s="21"/>
       <c r="C263" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="264" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
@@ -4386,7 +4405,7 @@
         <v>97</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="265" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
@@ -4395,7 +4414,7 @@
         <v>98</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="266" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
@@ -4404,7 +4423,7 @@
         <v>99</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="267" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
@@ -4413,7 +4432,7 @@
         <v>100</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="268" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
@@ -4437,7 +4456,7 @@
     <row r="270" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B270" s="21"/>
       <c r="C270" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D270" s="6"/>
     </row>
@@ -4447,214 +4466,214 @@
         <v>103</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="272" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B272" s="21"/>
       <c r="C272" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D272" s="6"/>
     </row>
     <row r="273" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B273" s="21"/>
       <c r="C273" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D273" s="6"/>
     </row>
     <row r="274" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B274" s="21"/>
       <c r="C274" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D274" s="6"/>
     </row>
     <row r="275" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B275" s="21"/>
       <c r="C275" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D275" s="6"/>
     </row>
     <row r="276" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B276" s="21"/>
       <c r="C276" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D276" s="6"/>
     </row>
     <row r="277" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B277" s="21"/>
       <c r="C277" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D277" s="6"/>
     </row>
     <row r="278" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B278" s="21"/>
       <c r="C278" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D278" s="6"/>
     </row>
     <row r="279" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B279" s="21"/>
       <c r="C279" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D279" s="6"/>
     </row>
     <row r="280" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B280" s="21"/>
       <c r="C280" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D280" s="6"/>
     </row>
     <row r="281" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B281" s="21"/>
       <c r="C281" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D281" s="6"/>
     </row>
     <row r="282" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B282" s="21"/>
       <c r="C282" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D282" s="6"/>
     </row>
     <row r="283" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B283" s="21"/>
       <c r="C283" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D283" s="6"/>
     </row>
     <row r="284" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B284" s="21"/>
       <c r="C284" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D284" s="6"/>
     </row>
     <row r="285" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B285" s="21"/>
       <c r="C285" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D285" s="6"/>
     </row>
     <row r="286" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B286" s="21"/>
       <c r="C286" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D286" s="6"/>
     </row>
     <row r="287" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B287" s="21"/>
       <c r="C287" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D287" s="6"/>
     </row>
     <row r="288" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B288" s="21"/>
       <c r="C288" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D288" s="6"/>
     </row>
     <row r="289" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B289" s="21"/>
       <c r="C289" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D289" s="6"/>
     </row>
     <row r="290" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B290" s="21"/>
       <c r="C290" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D290" s="6"/>
     </row>
     <row r="291" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B291" s="21"/>
       <c r="C291" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D291" s="6"/>
     </row>
     <row r="292" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B292" s="21"/>
       <c r="C292" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D292" s="6"/>
     </row>
     <row r="293" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B293" s="21"/>
       <c r="C293" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D293" s="6"/>
     </row>
     <row r="294" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B294" s="21"/>
       <c r="C294" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D294" s="6"/>
     </row>
     <row r="295" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B295" s="21"/>
       <c r="C295" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D295" s="6"/>
     </row>
     <row r="296" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B296" s="21"/>
       <c r="C296" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D296" s="6"/>
     </row>
     <row r="297" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B297" s="21"/>
       <c r="C297" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D297" s="6"/>
     </row>
     <row r="298" spans="2:4" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B298" s="21"/>
       <c r="C298" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D298" s="6"/>
     </row>
     <row r="299" spans="2:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B299" s="21"/>
       <c r="C299" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="300" spans="2:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B300" s="22"/>
       <c r="C300" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
